--- a/data/queries.xlsx
+++ b/data/queries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\PAPERS\Neuro\Paper\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Research\PAPERS\WORKING\Neuro\NeuroSciencePaper\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02D7780-430E-45E5-A484-8C727D3F426A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B296AD-77B1-42C2-8903-4019F6B51642}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>neuromarketing AND applications AND in AND business</t>
   </si>
@@ -283,13 +283,19 @@
   </si>
   <si>
     <t>human AND resource AND management AND strategy</t>
+  </si>
+  <si>
+    <t>Search Query</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,6 +319,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -322,7 +334,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -350,18 +362,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -645,618 +701,645 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="2.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="4"/>
+      <c r="B1" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>981</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>739</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <f>A24+1</f>
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>96985</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>203180</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <f>A2+1</f>
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>61</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>40</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <f>E2+1</f>
         <v>2</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>348</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>1042</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <f>A3+1</f>
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>283</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>208</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <f>E3+1</f>
         <v>3</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>14660</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>10330</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <f>A4+1</f>
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>78</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <f>E4+1</f>
         <v>4</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>205</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>356</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <f>A5+1</f>
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>343</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>263</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <f>E5+1</f>
         <v>5</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>390</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>454</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>51</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>46</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <f>A6+1</f>
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>25</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <f>E6+1</f>
         <v>6</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>12</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>11</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="F9" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>13</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <f>A8+1</f>
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>11</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>47</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <f>E8+1</f>
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>18</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <f t="shared" ref="A8:A19" si="0">A10+1</f>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
+        <f t="shared" ref="A11:A19" si="0">A10+1</f>
         <v>8</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>225</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>190</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <f>E10+1</f>
         <v>8</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>262</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>268</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <f>A11+1</f>
         <v>9</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>126</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>98</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <f>E11+1</f>
         <v>9</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>166</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>148</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="6"/>
+      <c r="B13" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>24</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>16</v>
       </c>
-      <c r="F13" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>17</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <f>A12+1</f>
         <v>10</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>35</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>37</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="6">
         <f>E12+1</f>
         <v>10</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>38</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>194</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>165</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="6">
         <f>E14+1</f>
         <v>11</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>194</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>165</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>10</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <f>E15+1</f>
         <v>12</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>505</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>456</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="6">
         <f>E16+1</f>
         <v>13</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>632</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>1324</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>86</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="7">
         <v>82</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="6">
         <f>E17+1</f>
         <v>14</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>89</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="7">
         <v>11</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="6">
         <f>E18+1</f>
         <v>15</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>188</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>936</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <f>A22+1</f>
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="7">
         <v>17</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="6">
         <f>E22+1</f>
         <v>17</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>357</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>613</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="6"/>
+      <c r="B21" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>3</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="7">
         <v>7</v>
       </c>
-      <c r="F21" t="s">
+      <c r="E21" s="6"/>
+      <c r="F21" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>49</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>670</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <f>A19+1</f>
         <v>16</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="7">
         <v>1</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="7">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="6">
         <f>E19+1</f>
         <v>16</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="7">
         <v>225</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="7">
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="7">
         <v>0</v>
       </c>
-      <c r="F23" t="s">
+      <c r="E23" s="6"/>
+      <c r="F23" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="7">
         <v>24</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="7">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="8"/>
+      <c r="B24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="11">
         <f>AVERAGE(C2:C23)</f>
         <v>136.59090909090909</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="11">
         <f>AVERAGE(D2:D23)</f>
         <v>115.04545454545455</v>
       </c>
-      <c r="G24">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9">
         <f>AVERAGE(G2:G23)</f>
         <v>5223.818181818182</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="9">
         <f>AVERAGE(H2:H23)</f>
         <v>10012.636363636364</v>
       </c>
@@ -1274,12 +1357,12 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>31</v>
       </c>
@@ -1293,7 +1376,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>75</v>
       </c>
@@ -1309,21 +1392,21 @@
       <c r="E2">
         <v>203180</v>
       </c>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="2"/>
+      <c r="I2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>76</v>
       </c>
@@ -1339,17 +1422,14 @@
       <c r="E3">
         <v>1042</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" t="s">
         <v>31</v>
       </c>
-      <c r="I3" s="1">
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1365,19 +1445,17 @@
       <c r="E4">
         <v>10330</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4">
         <v>0.99367856120436193</v>
       </c>
-      <c r="J4" s="1">
+      <c r="J4">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -1393,21 +1471,20 @@
       <c r="E5">
         <v>356</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" t="s">
         <v>33</v>
       </c>
-      <c r="I5" s="1">
+      <c r="I5">
         <v>0.83895329922975215</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="3">
         <v>0.80293142408925477</v>
       </c>
-      <c r="K5" s="1">
+      <c r="K5">
         <v>1</v>
       </c>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -1423,23 +1500,23 @@
       <c r="E6">
         <v>454</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="1">
         <v>0.8298057178844338</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <v>0.79653964069599925</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="1">
         <v>0.99496320667075377</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>77</v>
       </c>
@@ -1456,7 +1533,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>53</v>
       </c>
@@ -1473,7 +1550,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -1489,24 +1566,24 @@
       <c r="E9">
         <v>36</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3" t="s">
+      <c r="K9" s="2"/>
+      <c r="L9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="2"/>
+      <c r="N9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="3"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -1522,16 +1599,8 @@
       <c r="E10">
         <v>65</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1547,32 +1616,32 @@
       <c r="E11">
         <v>268</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="1">
+      <c r="I11">
         <v>171.52941176470588</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" t="s">
         <v>35</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11">
         <v>144.47058823529412</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" t="s">
         <v>35</v>
       </c>
-      <c r="M11" s="1">
+      <c r="M11">
         <v>6751.4705882352937</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" t="s">
         <v>35</v>
       </c>
-      <c r="O11" s="1">
+      <c r="O11">
         <v>12908.588235294117</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>56</v>
       </c>
@@ -1588,32 +1657,32 @@
       <c r="E12">
         <v>148</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" t="s">
         <v>36</v>
       </c>
-      <c r="I12" s="1">
+      <c r="I12">
         <v>61.637645919224298</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" t="s">
         <v>36</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12">
         <v>47.108301195463326</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" t="s">
         <v>36</v>
       </c>
-      <c r="M12" s="1">
+      <c r="M12">
         <v>5703.1910457046961</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="1">
+      <c r="O12">
         <v>11906.612887030844</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>79</v>
       </c>
@@ -1629,32 +1698,32 @@
       <c r="E13">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="I13" s="1">
+      <c r="I13">
         <v>61</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" t="s">
         <v>37</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13">
         <v>78</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" t="s">
         <v>37</v>
       </c>
-      <c r="M13" s="1">
+      <c r="M13">
         <v>205</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" t="s">
         <v>37</v>
       </c>
-      <c r="O13" s="1">
+      <c r="O13">
         <v>268</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>57</v>
       </c>
@@ -1670,28 +1739,26 @@
       <c r="E14">
         <v>44</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" t="s">
         <v>38</v>
       </c>
-      <c r="I14" s="1">
+      <c r="I14">
         <v>11</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" t="s">
         <v>38</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14">
         <v>0</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" t="s">
         <v>38</v>
       </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
+      <c r="N14" t="s">
         <v>38</v>
       </c>
-      <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>58</v>
       </c>
@@ -1707,32 +1774,32 @@
       <c r="E15">
         <v>165</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" t="s">
         <v>39</v>
       </c>
-      <c r="I15" s="1">
+      <c r="I15">
         <v>254.13852463938315</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" t="s">
         <v>39</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15">
         <v>194.232501672306</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" t="s">
         <v>39</v>
       </c>
-      <c r="M15" s="1">
+      <c r="M15">
         <v>23514.859084517302</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" t="s">
         <v>39</v>
       </c>
-      <c r="O15" s="1">
+      <c r="O15">
         <v>49092.222576568609</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>59</v>
       </c>
@@ -1748,32 +1815,32 @@
       <c r="E16">
         <v>15</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" t="s">
         <v>40</v>
       </c>
-      <c r="I16" s="1">
+      <c r="I16">
         <v>64586.38970588235</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" t="s">
         <v>40</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16">
         <v>37726.26470588235</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" t="s">
         <v>40</v>
       </c>
-      <c r="M16" s="1">
+      <c r="M16">
         <v>552948597.7647059</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" t="s">
         <v>40</v>
       </c>
-      <c r="O16" s="1">
+      <c r="O16">
         <v>2410046317.5073528</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -1789,32 +1856,32 @@
       <c r="E17">
         <v>1324</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" t="s">
         <v>41</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I17">
         <v>6.125882290913875</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" t="s">
         <v>41</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17">
         <v>5.0843803816808446</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" t="s">
         <v>41</v>
       </c>
-      <c r="M17" s="1">
+      <c r="M17">
         <v>16.098481336831803</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="1">
+      <c r="O17">
         <v>16.899305296069794</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>61</v>
       </c>
@@ -1830,32 +1897,32 @@
       <c r="E18">
         <v>206</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" t="s">
         <v>42</v>
       </c>
-      <c r="I18" s="1">
+      <c r="I18">
         <v>2.3302860301791908</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" t="s">
         <v>42</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18">
         <v>2.1872917144149078</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" t="s">
         <v>42</v>
       </c>
-      <c r="M18" s="1">
+      <c r="M18">
         <v>3.9821065511762201</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="O18" s="1">
+      <c r="O18">
         <v>4.1063594660276808</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>62</v>
       </c>
@@ -1871,32 +1938,32 @@
       <c r="E19">
         <v>936</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="1">
+      <c r="I19">
         <v>981</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" t="s">
         <v>43</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19">
         <v>739</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" t="s">
         <v>43</v>
       </c>
-      <c r="M19" s="1">
+      <c r="M19">
         <v>96979</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" t="s">
         <v>43</v>
       </c>
-      <c r="O19" s="1">
+      <c r="O19">
         <v>203165</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>64</v>
       </c>
@@ -1912,32 +1979,32 @@
       <c r="E20">
         <v>613</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" t="s">
         <v>44</v>
       </c>
-      <c r="I20" s="1">
+      <c r="I20">
         <v>0</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" t="s">
         <v>44</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="1">
+      <c r="M20">
         <v>6</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" t="s">
         <v>44</v>
       </c>
-      <c r="O20" s="1">
+      <c r="O20">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1953,32 +2020,32 @@
       <c r="E21">
         <v>670</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" t="s">
         <v>45</v>
       </c>
-      <c r="I21" s="1">
+      <c r="I21">
         <v>981</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21">
         <v>739</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" t="s">
         <v>45</v>
       </c>
-      <c r="M21" s="1">
+      <c r="M21">
         <v>96985</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" t="s">
         <v>45</v>
       </c>
-      <c r="O21" s="1">
+      <c r="O21">
         <v>203180</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>63</v>
       </c>
@@ -1994,32 +2061,32 @@
       <c r="E22">
         <v>249</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="I22" s="1">
+      <c r="I22">
         <v>2916</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" t="s">
         <v>46</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22">
         <v>2456</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="1">
+      <c r="M22">
         <v>114775</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="1">
+      <c r="O22">
         <v>219446</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>81</v>
       </c>
@@ -2035,28 +2102,28 @@
       <c r="E23">
         <v>39</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="1">
         <v>17</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="1">
         <v>17</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M23" s="2">
+      <c r="M23" s="1">
         <v>17</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="O23" s="2">
+      <c r="O23" s="1">
         <v>17</v>
       </c>
     </row>
